--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5247,6 +5247,41 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I140" t="n">
+        <v>232000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5282,6 +5282,41 @@
         <v>232000</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I141" t="n">
+        <v>48000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5317,6 +5317,41 @@
         <v>48000</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I142" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5352,6 +5352,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I143" t="n">
+        <v>387300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5387,6 +5387,41 @@
         <v>387300</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I144" t="n">
+        <v>165000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5422,6 +5422,43 @@
         <v>165000</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5459,6 +5459,41 @@
         </is>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I146" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5494,6 +5494,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I147" t="n">
+        <v>98300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5529,6 +5529,41 @@
         <v>98300</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I148" t="n">
+        <v>28700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5564,6 +5564,41 @@
         <v>28700</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I149" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5599,6 +5599,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I150" t="n">
+        <v>22900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5634,6 +5634,41 @@
         <v>22900</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5669,6 +5669,78 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I153" t="n">
+        <v>415500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5741,6 +5741,76 @@
         <v>415500</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I154" t="n">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I155" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5811,6 +5811,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I156" t="n">
+        <v>96000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5846,6 +5846,41 @@
         <v>96000</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I157" t="n">
+        <v>218000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5881,6 +5881,41 @@
         <v>218000</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I158" t="n">
+        <v>121000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5916,6 +5916,41 @@
         <v>121000</v>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I159" t="n">
+        <v>582900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5951,6 +5951,76 @@
         <v>582900</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I160" t="n">
+        <v>512500</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2204700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6021,6 +6021,41 @@
         <v>2204700</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I162" t="n">
+        <v>15100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,6 +6056,41 @@
         <v>15100</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2651100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3532,11 +3532,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3550,28 +3550,28 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.275</v>
+        <v>0.29</v>
       </c>
       <c r="F91" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.28</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.27</v>
       </c>
       <c r="H91" t="n">
         <v>0.28</v>
       </c>
       <c r="I91" t="n">
-        <v>71000</v>
+        <v>61800</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3585,28 +3585,28 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F92" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="G92" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="H92" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I92" t="n">
-        <v>412000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3620,28 +3620,28 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="F93" t="n">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="G93" t="n">
-        <v>0.26</v>
+        <v>0.275</v>
       </c>
       <c r="H93" t="n">
-        <v>0.26</v>
+        <v>0.275</v>
       </c>
       <c r="I93" t="n">
-        <v>165300</v>
+        <v>471300</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3655,28 +3655,28 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.255</v>
+        <v>0.28</v>
       </c>
       <c r="F94" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="G94" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="H94" t="n">
-        <v>0.255</v>
+        <v>0.28</v>
       </c>
       <c r="I94" t="n">
-        <v>168600</v>
+        <v>245200</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3690,28 +3690,28 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="F95" t="n">
-        <v>0.255</v>
+        <v>0.275</v>
       </c>
       <c r="G95" t="n">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="H95" t="n">
-        <v>0.255</v>
+        <v>0.275</v>
       </c>
       <c r="I95" t="n">
-        <v>86800</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3725,28 +3725,28 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.255</v>
+        <v>0.28</v>
       </c>
       <c r="F96" t="n">
-        <v>0.255</v>
+        <v>0.28</v>
       </c>
       <c r="G96" t="n">
-        <v>0.255</v>
+        <v>0.275</v>
       </c>
       <c r="H96" t="n">
-        <v>0.255</v>
+        <v>0.275</v>
       </c>
       <c r="I96" t="n">
-        <v>5000</v>
+        <v>99700</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3760,28 +3760,28 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.255</v>
+        <v>0.275</v>
       </c>
       <c r="F97" t="n">
-        <v>0.255</v>
+        <v>0.275</v>
       </c>
       <c r="G97" t="n">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="H97" t="n">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="I97" t="n">
-        <v>103500</v>
+        <v>112000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1575936000</v>
+        <v>1574899200</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3795,28 +3795,28 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="F98" t="n">
-        <v>0.255</v>
+        <v>0.285</v>
       </c>
       <c r="G98" t="n">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="H98" t="n">
-        <v>0.255</v>
+        <v>0.285</v>
       </c>
       <c r="I98" t="n">
-        <v>118800</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1576022400</v>
+        <v>1574985600</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3830,28 +3830,28 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="F99" t="n">
-        <v>0.255</v>
+        <v>0.28</v>
       </c>
       <c r="G99" t="n">
-        <v>0.245</v>
+        <v>0.27</v>
       </c>
       <c r="H99" t="n">
-        <v>0.245</v>
+        <v>0.28</v>
       </c>
       <c r="I99" t="n">
-        <v>144000</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1576108800</v>
+        <v>1575244800</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3865,28 +3865,28 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.245</v>
+        <v>0.27</v>
       </c>
       <c r="F100" t="n">
-        <v>0.245</v>
+        <v>0.27</v>
       </c>
       <c r="G100" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="H100" t="n">
-        <v>0.245</v>
+        <v>0.27</v>
       </c>
       <c r="I100" t="n">
-        <v>471000</v>
+        <v>412000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1576195200</v>
+        <v>1575331200</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3900,28 +3900,28 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.25</v>
+        <v>0.265</v>
       </c>
       <c r="F101" t="n">
-        <v>0.25</v>
+        <v>0.265</v>
       </c>
       <c r="G101" t="n">
-        <v>0.235</v>
+        <v>0.26</v>
       </c>
       <c r="H101" t="n">
-        <v>0.235</v>
+        <v>0.26</v>
       </c>
       <c r="I101" t="n">
-        <v>461000</v>
+        <v>165300</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1576454400</v>
+        <v>1575417600</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3935,28 +3935,28 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.235</v>
+        <v>0.255</v>
       </c>
       <c r="F102" t="n">
         <v>0.26</v>
       </c>
       <c r="G102" t="n">
-        <v>0.235</v>
+        <v>0.25</v>
       </c>
       <c r="H102" t="n">
-        <v>0.245</v>
+        <v>0.255</v>
       </c>
       <c r="I102" t="n">
-        <v>1068400</v>
+        <v>168600</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1576540800</v>
+        <v>1575504000</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3970,28 +3970,28 @@
         </is>
       </c>
       <c r="E103" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F103" t="n">
         <v>0.255</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.27</v>
       </c>
       <c r="G103" t="n">
         <v>0.25</v>
       </c>
       <c r="H103" t="n">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="I103" t="n">
-        <v>956400</v>
+        <v>86800</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1576627200</v>
+        <v>1575590400</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4005,28 +4005,28 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.265</v>
+        <v>0.255</v>
       </c>
       <c r="F104" t="n">
-        <v>0.275</v>
+        <v>0.255</v>
       </c>
       <c r="G104" t="n">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="H104" t="n">
-        <v>0.265</v>
+        <v>0.255</v>
       </c>
       <c r="I104" t="n">
-        <v>332300</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1576713600</v>
+        <v>1575849600</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4040,28 +4040,28 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.27</v>
+        <v>0.255</v>
       </c>
       <c r="F105" t="n">
-        <v>0.28</v>
+        <v>0.255</v>
       </c>
       <c r="G105" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="H105" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I105" t="n">
-        <v>578500</v>
+        <v>103500</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1576800000</v>
+        <v>1575936000</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4075,28 +4075,28 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F106" t="n">
-        <v>0.28</v>
+        <v>0.255</v>
       </c>
       <c r="G106" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="H106" t="n">
-        <v>0.275</v>
+        <v>0.255</v>
       </c>
       <c r="I106" t="n">
-        <v>558100</v>
+        <v>118800</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1577059200</v>
+        <v>1576022400</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4110,28 +4110,28 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.275</v>
+        <v>0.25</v>
       </c>
       <c r="F107" t="n">
-        <v>0.28</v>
+        <v>0.255</v>
       </c>
       <c r="G107" t="n">
-        <v>0.275</v>
+        <v>0.245</v>
       </c>
       <c r="H107" t="n">
-        <v>0.28</v>
+        <v>0.245</v>
       </c>
       <c r="I107" t="n">
-        <v>326700</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1577145600</v>
+        <v>1576108800</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4145,28 +4145,28 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.275</v>
+        <v>0.245</v>
       </c>
       <c r="F108" t="n">
-        <v>0.28</v>
+        <v>0.245</v>
       </c>
       <c r="G108" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="H108" t="n">
-        <v>0.275</v>
+        <v>0.245</v>
       </c>
       <c r="I108" t="n">
-        <v>489200</v>
+        <v>471000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1577318400</v>
+        <v>1576195200</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4180,28 +4180,28 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F109" t="n">
-        <v>0.275</v>
+        <v>0.25</v>
       </c>
       <c r="G109" t="n">
-        <v>0.265</v>
+        <v>0.235</v>
       </c>
       <c r="H109" t="n">
-        <v>0.275</v>
+        <v>0.235</v>
       </c>
       <c r="I109" t="n">
-        <v>418200</v>
+        <v>461000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1577404800</v>
+        <v>1576454400</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4215,28 +4215,28 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.275</v>
+        <v>0.235</v>
       </c>
       <c r="F110" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="G110" t="n">
-        <v>0.275</v>
+        <v>0.235</v>
       </c>
       <c r="H110" t="n">
-        <v>0.275</v>
+        <v>0.245</v>
       </c>
       <c r="I110" t="n">
-        <v>77000</v>
+        <v>1068400</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1577664000</v>
+        <v>1576540800</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4250,28 +4250,28 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.28</v>
+        <v>0.255</v>
       </c>
       <c r="F111" t="n">
-        <v>0.285</v>
+        <v>0.27</v>
       </c>
       <c r="G111" t="n">
-        <v>0.275</v>
+        <v>0.25</v>
       </c>
       <c r="H111" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I111" t="n">
-        <v>162800</v>
+        <v>956400</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1577750400</v>
+        <v>1576627200</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4285,28 +4285,28 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.275</v>
+        <v>0.265</v>
       </c>
       <c r="F112" t="n">
         <v>0.275</v>
       </c>
       <c r="G112" t="n">
-        <v>0.275</v>
+        <v>0.25</v>
       </c>
       <c r="H112" t="n">
-        <v>0.275</v>
+        <v>0.265</v>
       </c>
       <c r="I112" t="n">
-        <v>150000</v>
+        <v>332300</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1577923200</v>
+        <v>1576713600</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4323,25 +4323,25 @@
         <v>0.27</v>
       </c>
       <c r="F113" t="n">
-        <v>0.295</v>
+        <v>0.28</v>
       </c>
       <c r="G113" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.27</v>
       </c>
-      <c r="H113" t="n">
-        <v>0.29</v>
-      </c>
       <c r="I113" t="n">
-        <v>2177300</v>
+        <v>578500</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1578009600</v>
+        <v>1576800000</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4355,28 +4355,28 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="F114" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="G114" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="H114" t="n">
-        <v>0.28</v>
+        <v>0.275</v>
       </c>
       <c r="I114" t="n">
-        <v>413500</v>
+        <v>558100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1578268800</v>
+        <v>1577059200</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.28</v>
+        <v>0.275</v>
       </c>
       <c r="F115" t="n">
         <v>0.28</v>
@@ -4399,19 +4399,19 @@
         <v>0.275</v>
       </c>
       <c r="H115" t="n">
-        <v>0.275</v>
+        <v>0.28</v>
       </c>
       <c r="I115" t="n">
-        <v>63500</v>
+        <v>326700</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1578355200</v>
+        <v>1577145600</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4428,25 +4428,25 @@
         <v>0.275</v>
       </c>
       <c r="F116" t="n">
-        <v>0.275</v>
+        <v>0.28</v>
       </c>
       <c r="G116" t="n">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="H116" t="n">
         <v>0.275</v>
       </c>
       <c r="I116" t="n">
-        <v>300</v>
+        <v>489200</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1578441600</v>
+        <v>1577318400</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4460,28 +4460,28 @@
         </is>
       </c>
       <c r="E117" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F117" t="n">
         <v>0.275</v>
       </c>
-      <c r="F117" t="n">
-        <v>0.28</v>
-      </c>
       <c r="G117" t="n">
-        <v>0.275</v>
+        <v>0.265</v>
       </c>
       <c r="H117" t="n">
         <v>0.275</v>
       </c>
       <c r="I117" t="n">
-        <v>259000</v>
+        <v>418200</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1578528000</v>
+        <v>1577404800</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4495,28 +4495,28 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="F118" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="G118" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="H118" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="I118" t="n">
-        <v>48900</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1578614400</v>
+        <v>1577664000</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4530,28 +4530,28 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F119" t="n">
-        <v>0.27</v>
+        <v>0.285</v>
       </c>
       <c r="G119" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="H119" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I119" t="n">
-        <v>5000</v>
+        <v>162800</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1578873600</v>
+        <v>1577750400</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4565,28 +4565,28 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="F120" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="G120" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="H120" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="I120" t="n">
-        <v>24000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1578960000</v>
+        <v>1577923200</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4603,25 +4603,25 @@
         <v>0.27</v>
       </c>
       <c r="F121" t="n">
-        <v>0.27</v>
+        <v>0.295</v>
       </c>
       <c r="G121" t="n">
         <v>0.27</v>
       </c>
       <c r="H121" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="I121" t="n">
-        <v>14000</v>
+        <v>2177300</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1579046400</v>
+        <v>1578009600</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4635,28 +4635,28 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.275</v>
+        <v>0.29</v>
       </c>
       <c r="F122" t="n">
-        <v>0.275</v>
+        <v>0.29</v>
       </c>
       <c r="G122" t="n">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="H122" t="n">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="I122" t="n">
-        <v>7500</v>
+        <v>413500</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1579132800</v>
+        <v>1578268800</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4670,28 +4670,28 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="F123" t="n">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="G123" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="H123" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="I123" t="n">
-        <v>10000</v>
+        <v>63500</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1579219200</v>
+        <v>1578355200</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4705,28 +4705,28 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="F124" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="G124" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="H124" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="I124" t="n">
-        <v>24500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1579478400</v>
+        <v>1578441600</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4740,28 +4740,28 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="F125" t="n">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="G125" t="n">
-        <v>0.26</v>
+        <v>0.275</v>
       </c>
       <c r="H125" t="n">
-        <v>0.26</v>
+        <v>0.275</v>
       </c>
       <c r="I125" t="n">
-        <v>17500</v>
+        <v>259000</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1579564800</v>
+        <v>1578528000</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4775,28 +4775,28 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F126" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G126" t="n">
-        <v>0.255</v>
+        <v>0.27</v>
       </c>
       <c r="H126" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I126" t="n">
-        <v>97800</v>
+        <v>48900</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1579651200</v>
+        <v>1578614400</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4810,28 +4810,28 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F127" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G127" t="n">
-        <v>0.255</v>
+        <v>0.27</v>
       </c>
       <c r="H127" t="n">
-        <v>0.255</v>
+        <v>0.27</v>
       </c>
       <c r="I127" t="n">
-        <v>80500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1579737600</v>
+        <v>1578873600</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4845,28 +4845,28 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.255</v>
+        <v>0.27</v>
       </c>
       <c r="F128" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G128" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="H128" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I128" t="n">
-        <v>53000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1579824000</v>
+        <v>1578960000</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4880,28 +4880,28 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.255</v>
+        <v>0.27</v>
       </c>
       <c r="F129" t="n">
         <v>0.27</v>
       </c>
       <c r="G129" t="n">
-        <v>0.255</v>
+        <v>0.27</v>
       </c>
       <c r="H129" t="n">
         <v>0.27</v>
       </c>
       <c r="I129" t="n">
-        <v>44000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1580169600</v>
+        <v>1579046400</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4915,30 +4915,28 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="F130" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="G130" t="n">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="H130" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.265</v>
+      </c>
+      <c r="I130" t="n">
+        <v>7500</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1580256000</v>
+        <v>1579132800</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4952,28 +4950,28 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.255</v>
+        <v>0.265</v>
       </c>
       <c r="F131" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="G131" t="n">
-        <v>0.255</v>
+        <v>0.265</v>
       </c>
       <c r="H131" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="I131" t="n">
-        <v>60000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1580342400</v>
+        <v>1579219200</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4987,28 +4985,28 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="F132" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G132" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="H132" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I132" t="n">
-        <v>50000</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1580428800</v>
+        <v>1579478400</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5022,28 +5020,28 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.255</v>
+        <v>0.265</v>
       </c>
       <c r="F133" t="n">
-        <v>0.255</v>
+        <v>0.265</v>
       </c>
       <c r="G133" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="H133" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I133" t="n">
-        <v>311000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1580688000</v>
+        <v>1579564800</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5057,28 +5055,28 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="F134" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="G134" t="n">
-        <v>0.24</v>
+        <v>0.255</v>
       </c>
       <c r="H134" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I134" t="n">
-        <v>191000</v>
+        <v>97800</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1580774400</v>
+        <v>1579651200</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5092,28 +5090,28 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="F135" t="n">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="G135" t="n">
-        <v>0.24</v>
+        <v>0.255</v>
       </c>
       <c r="H135" t="n">
-        <v>0.245</v>
+        <v>0.255</v>
       </c>
       <c r="I135" t="n">
-        <v>28000</v>
+        <v>80500</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1580860800</v>
+        <v>1579737600</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5127,28 +5125,28 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.245</v>
+        <v>0.255</v>
       </c>
       <c r="F136" t="n">
         <v>0.26</v>
       </c>
       <c r="G136" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="H136" t="n">
-        <v>0.255</v>
+        <v>0.25</v>
       </c>
       <c r="I136" t="n">
-        <v>90000</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1580947200</v>
+        <v>1579824000</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5162,28 +5160,28 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="F137" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G137" t="n">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="H137" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I137" t="n">
-        <v>10000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1581033600</v>
+        <v>1580169600</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5197,28 +5195,30 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="F138" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G138" t="n">
-        <v>0.245</v>
+        <v>0.27</v>
       </c>
       <c r="H138" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I138" t="n">
-        <v>50400</v>
+        <v>0.27</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1581292800</v>
+        <v>1580256000</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5232,28 +5232,28 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="F139" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G139" t="n">
         <v>0.255</v>
       </c>
-      <c r="G139" t="n">
-        <v>0.25</v>
-      </c>
       <c r="H139" t="n">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
       <c r="I139" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1581379200</v>
+        <v>1580342400</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5267,28 +5267,28 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="F140" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="G140" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="H140" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I140" t="n">
-        <v>232000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1581465600</v>
+        <v>1580428800</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5302,28 +5302,28 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.245</v>
+        <v>0.255</v>
       </c>
       <c r="F141" t="n">
-        <v>0.245</v>
+        <v>0.255</v>
       </c>
       <c r="G141" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="H141" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="I141" t="n">
-        <v>48000</v>
+        <v>311000</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1581552000</v>
+        <v>1580688000</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5337,28 +5337,28 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="F142" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="G142" t="n">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="H142" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="I142" t="n">
-        <v>25000</v>
+        <v>191000</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1581638400</v>
+        <v>1580774400</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5372,28 +5372,28 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="F143" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="G143" t="n">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="H143" t="n">
         <v>0.245</v>
       </c>
       <c r="I143" t="n">
-        <v>387300</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1581897600</v>
+        <v>1580860800</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5410,25 +5410,25 @@
         <v>0.245</v>
       </c>
       <c r="F144" t="n">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="G144" t="n">
         <v>0.245</v>
       </c>
       <c r="H144" t="n">
-        <v>0.245</v>
+        <v>0.255</v>
       </c>
       <c r="I144" t="n">
-        <v>165000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1581984000</v>
+        <v>1580947200</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5442,30 +5442,28 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="F145" t="n">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="G145" t="n">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="H145" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.26</v>
+      </c>
+      <c r="I145" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1582070400</v>
+        <v>1581033600</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5479,28 +5477,28 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="F146" t="n">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="G146" t="n">
         <v>0.245</v>
       </c>
       <c r="H146" t="n">
-        <v>0.245</v>
+        <v>0.26</v>
       </c>
       <c r="I146" t="n">
-        <v>80000</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1582156800</v>
+        <v>1581292800</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5514,28 +5512,28 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="F147" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G147" t="n">
         <v>0.25</v>
       </c>
-      <c r="G147" t="n">
-        <v>0.245</v>
-      </c>
       <c r="H147" t="n">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="I147" t="n">
-        <v>98300</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1582243200</v>
+        <v>1581379200</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5549,28 +5547,28 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="F148" t="n">
         <v>0.25</v>
       </c>
       <c r="G148" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="H148" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I148" t="n">
-        <v>28700</v>
+        <v>232000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1582502400</v>
+        <v>1581465600</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5584,28 +5582,28 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="F149" t="n">
         <v>0.245</v>
       </c>
       <c r="G149" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="H149" t="n">
         <v>0.245</v>
       </c>
       <c r="I149" t="n">
-        <v>27000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1582588800</v>
+        <v>1581552000</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5619,28 +5617,28 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="F150" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="G150" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="H150" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="I150" t="n">
-        <v>22900</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1582675200</v>
+        <v>1581638400</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5654,28 +5652,28 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F151" t="n">
-        <v>0.255</v>
+        <v>0.25</v>
       </c>
       <c r="G151" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="H151" t="n">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
       <c r="I151" t="n">
-        <v>2000</v>
+        <v>387300</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1582761600</v>
+        <v>1581897600</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5689,30 +5687,28 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
       <c r="F152" t="n">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
       <c r="G152" t="n">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
       <c r="H152" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.245</v>
+      </c>
+      <c r="I152" t="n">
+        <v>165000</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1582848000</v>
+        <v>1581984000</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5726,28 +5722,30 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="F153" t="n">
-        <v>0.26</v>
+        <v>0.245</v>
       </c>
       <c r="G153" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="H153" t="n">
         <v>0.245</v>
       </c>
-      <c r="I153" t="n">
-        <v>415500</v>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1583107200</v>
+        <v>1582070400</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5761,28 +5759,28 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="F154" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="G154" t="n">
-        <v>0.235</v>
+        <v>0.245</v>
       </c>
       <c r="H154" t="n">
-        <v>0.235</v>
+        <v>0.245</v>
       </c>
       <c r="I154" t="n">
-        <v>69500</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1583193600</v>
+        <v>1582156800</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5796,28 +5794,28 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.235</v>
+        <v>0.245</v>
       </c>
       <c r="F155" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G155" t="n">
         <v>0.245</v>
       </c>
-      <c r="G155" t="n">
-        <v>0.235</v>
-      </c>
       <c r="H155" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="I155" t="n">
-        <v>100000</v>
+        <v>98300</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1583280000</v>
+        <v>1582243200</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5831,28 +5829,28 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F156" t="n">
         <v>0.25</v>
       </c>
       <c r="G156" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H156" t="n">
         <v>0.25</v>
       </c>
       <c r="I156" t="n">
-        <v>96000</v>
+        <v>28700</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1583366400</v>
+        <v>1582502400</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5866,28 +5864,28 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F157" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="G157" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.245</v>
       </c>
-      <c r="H157" t="n">
-        <v>0.25</v>
-      </c>
       <c r="I157" t="n">
-        <v>218000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1583452800</v>
+        <v>1582588800</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5901,10 +5899,10 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F158" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="G158" t="n">
         <v>0.24</v>
@@ -5913,16 +5911,16 @@
         <v>0.24</v>
       </c>
       <c r="I158" t="n">
-        <v>121000</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1583712000</v>
+        <v>1582675200</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5939,25 +5937,25 @@
         <v>0.24</v>
       </c>
       <c r="F159" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G159" t="n">
         <v>0.24</v>
       </c>
-      <c r="G159" t="n">
-        <v>0.215</v>
-      </c>
       <c r="H159" t="n">
-        <v>0.225</v>
+        <v>0.255</v>
       </c>
       <c r="I159" t="n">
-        <v>582900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1583798400</v>
+        <v>1582761600</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5971,28 +5969,30 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.215</v>
+        <v>0.255</v>
       </c>
       <c r="F160" t="n">
-        <v>0.22</v>
+        <v>0.255</v>
       </c>
       <c r="G160" t="n">
-        <v>0.215</v>
+        <v>0.255</v>
       </c>
       <c r="H160" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I160" t="n">
-        <v>512500</v>
+        <v>0.255</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1583884800</v>
+        <v>1582848000</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6006,28 +6006,28 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.205</v>
+        <v>0.25</v>
       </c>
       <c r="F161" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="G161" t="n">
-        <v>0.185</v>
+        <v>0.24</v>
       </c>
       <c r="H161" t="n">
-        <v>0.2</v>
+        <v>0.245</v>
       </c>
       <c r="I161" t="n">
-        <v>2204700</v>
+        <v>415500</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1583971200</v>
+        <v>1583107200</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6041,53 +6041,333 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="F162" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="G162" t="n">
-        <v>0.19</v>
+        <v>0.235</v>
       </c>
       <c r="H162" t="n">
-        <v>0.19</v>
+        <v>0.235</v>
       </c>
       <c r="I162" t="n">
-        <v>15100</v>
+        <v>69500</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I163" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I164" t="n">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I165" t="n">
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I166" t="n">
+        <v>121000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I167" t="n">
+        <v>582900</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I168" t="n">
+        <v>512500</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2204700</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I170" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>0210</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>KHJB</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
         <v>0.17</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F171" t="n">
         <v>0.17</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G171" t="n">
         <v>0.14</v>
       </c>
-      <c r="H163" t="n">
+      <c r="H171" t="n">
         <v>0.155</v>
       </c>
-      <c r="I163" t="n">
+      <c r="I171" t="n">
         <v>2651100</v>
       </c>
     </row>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6371,6 +6371,41 @@
         <v>2651100</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I172" t="n">
+        <v>436800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6406,6 +6406,41 @@
         <v>436800</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I173" t="n">
+        <v>188900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6441,6 +6441,41 @@
         <v>188900</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I174" t="n">
+        <v>225100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6476,6 +6476,41 @@
         <v>225100</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I175" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6511,6 +6511,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I176" t="n">
+        <v>298600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6546,6 +6546,41 @@
         <v>298600</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I177" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6581,6 +6581,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I178" t="n">
+        <v>115900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6616,6 +6616,41 @@
         <v>115900</v>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I179" t="n">
+        <v>521700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,6 +6651,41 @@
         <v>521700</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I180" t="n">
+        <v>82000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6686,6 +6686,41 @@
         <v>82000</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I181" t="n">
+        <v>332700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6721,6 +6721,41 @@
         <v>332700</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1660700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6756,6 +6756,41 @@
         <v>1660700</v>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1213300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6791,6 +6791,41 @@
         <v>1213300</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I184" t="n">
+        <v>80300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I184"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6826,6 +6826,41 @@
         <v>80300</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I185" t="n">
+        <v>97100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6861,6 +6861,41 @@
         <v>97100</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I186" t="n">
+        <v>45500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6896,6 +6896,41 @@
         <v>45500</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I187" t="n">
+        <v>111600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6931,6 +6931,41 @@
         <v>111600</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I188" t="n">
+        <v>85200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6966,6 +6966,41 @@
         <v>85200</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I189" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7001,6 +7001,41 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I190" t="n">
+        <v>108600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7036,6 +7036,41 @@
         <v>108600</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I191" t="n">
+        <v>32100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7071,6 +7071,41 @@
         <v>32100</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I192" t="n">
+        <v>70400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7106,6 +7106,41 @@
         <v>70400</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I193" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7141,6 +7141,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I194" t="n">
+        <v>5788600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7176,6 +7176,41 @@
         <v>5788600</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1577200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7211,6 +7211,41 @@
         <v>1577200</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I196" t="n">
+        <v>993300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7246,6 +7246,76 @@
         <v>993300</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I197" t="n">
+        <v>4729500</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2127100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7316,6 +7316,41 @@
         <v>2127100</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I199" t="n">
+        <v>609900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7351,6 +7351,111 @@
         <v>609900</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I200" t="n">
+        <v>377400</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I201" t="n">
+        <v>157900</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2742900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7456,6 +7456,41 @@
         <v>2742900</v>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I203" t="n">
+        <v>10153600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7491,6 +7491,41 @@
         <v>10153600</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I204" t="n">
+        <v>3080100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0210.xlsx
+++ b/data/0210.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7526,6 +7526,111 @@
         <v>3080100</v>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I205" t="n">
+        <v>3907400</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I206" t="n">
+        <v>3310900</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>0210</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>KHJB</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I207" t="n">
+        <v>3533800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
